--- a/intro_auto/hw/data_excel.xlsx
+++ b/intro_auto/hw/data_excel.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Golubnikova\Working_directory\RStudio\Projects\BioStat_2022\intro_auto\hw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C862C332-5756-48E5-94C3-BCC5EBD25BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Визиты" sheetId="2" r:id="rId5"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Визиты" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2486,15 +2495,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -2505,38 +2515,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2726,23 +2742,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2783,5027 +2802,5023 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="1">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="1">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="1">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="1">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="1">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="1">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="1">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="1">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="1">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="1">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D42" s="1">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="1">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B45" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="1">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="K48" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="M48" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K49" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K50" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M50" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="K51" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L51" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B52" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="K52" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B53" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="K53" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="L53" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M53" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B54" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K54" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B55" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D55" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K55" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="L55" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B56" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D56" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="K56" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="L56" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B57" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="1">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="K57" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="L57" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B58" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D58" s="1">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="K58" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L58" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B59" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="K59" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="L59" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="M59" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B60" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="K60" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="L60" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B61" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D61" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K61" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B62" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="K62" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="L62" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B63" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D63" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="K63" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="L63" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M63" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B64" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D64" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K64" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L64" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B65" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D65" s="1">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K65" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="L65" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M65" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B66" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="1">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K66" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="L66" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="M66" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B67" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D67" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="K67" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="L67" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="M67" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B68" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="1">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I68" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="K68" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="L68" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="M68" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B69" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="K69" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="L69" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="M69" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B70" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K70" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="L70" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="M70" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B71" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D71" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K71" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="L71" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="M71" s="2" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B72" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D72" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K72" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L72" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="M72" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B73" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I73" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K73" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="L73" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="M73" s="2" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B74" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D74" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="K74" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="L74" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="M74" s="2" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B75" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D75" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I75" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="K75" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="L75" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="M75" s="2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B76" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="1">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K76" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L76" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="M76" s="2" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B77" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D77" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H77" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I77" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="K77" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="L77" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="M77" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B78" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D78" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I78" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J78" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="K78" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="L78" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="M78" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B79" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I79" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="K79" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="L79" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="M79" s="2" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B80" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="1">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I80" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="K80" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="L80" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="M80" s="2" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B81" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="K81" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="L81" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="M81" s="2" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B82" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D82" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I82" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J82" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="K82" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="L82" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="M82" s="2" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B83" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D83" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H83" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I83" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J83" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="K83" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="L83" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="M83" s="1" t="s">
+      <c r="M83" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B84" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D84" s="1">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H84" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I84" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J84" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="K84" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="L84" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="M84" s="2" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B85" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D85" s="1">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H85" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="I85" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="K85" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="L85" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="M85" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B86" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I86" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="J86" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="K86" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="L86" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="M86" s="2" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B87" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="1">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H87" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="I87" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J87" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="K87" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="L87" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="M87" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B88" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D88" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H88" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="I88" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="J88" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="K88" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="L88" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="M88" s="1" t="s">
+      <c r="M88" s="2" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B89" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D89" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H89" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I89" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="J89" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="K89" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="L89" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="M89" s="2" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B90" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="1">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="I90" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="J90" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="K90" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="L90" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="M90" s="2" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B91" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H91" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I91" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J91" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="K91" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="L91" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="M91" s="2" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B92" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D92" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H92" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="I92" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="J92" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="K92" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="L92" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="M92" s="2" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B93" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D93" s="1">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H93" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="I93" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="J93" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="K93" s="1" t="s">
+      <c r="K93" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="L93" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="M93" s="2" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B94" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H94" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I94" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="J94" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="K94" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="L94" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="M94" s="2" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B95" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="1">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I95" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="K95" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="L95" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="M95" s="2" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B96" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="1">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H96" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I96" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="J96" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="K96" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="L96" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="M96" s="2" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B97" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D97" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I97" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J97" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="K97" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="L97" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="M97" s="2" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B98" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D98" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H98" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I98" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="J98" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="K98" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="L98" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="M98" s="1" t="s">
+      <c r="M98" s="2" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B99" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D99" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H99" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I99" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="J99" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="K99" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="L99" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="M99" s="1" t="s">
+      <c r="M99" s="2" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B100" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I100" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="J100" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="K100" s="1" t="s">
+      <c r="K100" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="L100" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="M100" s="1" t="s">
+      <c r="M100" s="2" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B101" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="1">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="I101" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="J101" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="K101" s="1" t="s">
+      <c r="K101" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="L101" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="M101" s="1" t="s">
+      <c r="M101" s="2" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="102" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>819</v>
       </c>
@@ -7811,7 +7826,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>821</v>
       </c>
@@ -7819,1008 +7834,1006 @@
         <v>822</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>